--- a/tabela2.xlsx
+++ b/tabela2.xlsx
@@ -37,17 +37,18 @@
     <t xml:space="preserve">T [s]</t>
   </si>
   <si>
-    <t xml:space="preserve">T^2 [s^2]</t>
+    <t xml:space="preserve">T² [s²]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -71,6 +72,16 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,12 +126,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -133,7 +156,524 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T² [s²]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.241</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.281</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.281</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.321</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.394</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.146</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.195</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$2:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.5376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66504025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.815409</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99102025</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.13564544444444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.142761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.29390625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.461681</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.572516</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.439569</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.611524</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.799236</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.970225</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.142761</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="4208532"/>
+        <c:axId val="60431198"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="4208532"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>długość wahadła l [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="60431198"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="60431198"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>kwadrat okresu wahania T² [s²]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4208532"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>20160</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38520</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="820080" y="3461400"/>
+        <a:ext cx="5760720" cy="3241800"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -141,15 +681,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -177,19 +717,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>369</v>
+        <v>0.369</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>24.8</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <f aca="false">$D2/$C2</f>
         <v>1.24</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="2" t="n">
         <f aca="false">$E2*$E2</f>
         <v>1.5376</v>
       </c>
@@ -199,19 +739,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>163</v>
+        <v>0.163</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>16.31</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <f aca="false">$D3/$C3</f>
         <v>0.8155</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="2" t="n">
         <f aca="false">$E3*$E3</f>
         <v>0.66504025</v>
       </c>
@@ -221,19 +761,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>201</v>
+        <v>0.201</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>18.06</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <f aca="false">$D4/$C4</f>
         <v>0.903</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="2" t="n">
         <f aca="false">$E4*$E4</f>
         <v>0.815409</v>
       </c>
@@ -243,21 +783,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>241</v>
+        <v>0.241</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <v>10.1</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <f aca="false">$D5/$C5</f>
         <v>1.01</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="2" t="n">
         <f aca="false">$E5*$E5</f>
         <v>1.0201</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">LINEST(F2:F16,B2:B16)</f>
+        <v>4.02715235196045</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -265,19 +809,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>241</v>
+        <v>0.241</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2" t="n">
         <v>19.91</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2" t="n">
         <f aca="false">$D6/$C6</f>
         <v>0.9955</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="2" t="n">
         <f aca="false">$E6*$E6</f>
         <v>0.99102025</v>
       </c>
@@ -287,19 +831,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>281</v>
+        <v>0.281</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2" t="n">
         <v>31.97</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2" t="n">
         <f aca="false">$D7/$C7</f>
         <v>1.06566666666667</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="2" t="n">
         <f aca="false">$E7*$E7</f>
         <v>1.13564544444444</v>
       </c>
@@ -309,19 +853,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>281</v>
+        <v>0.281</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2" t="n">
         <v>21.38</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2" t="n">
         <f aca="false">$D8/$C8</f>
         <v>1.069</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="2" t="n">
         <f aca="false">$E8*$E8</f>
         <v>1.142761</v>
       </c>
@@ -331,19 +875,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>321</v>
+        <v>0.321</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="2" t="n">
         <v>22.75</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2" t="n">
         <f aca="false">$D9/$C9</f>
         <v>1.1375</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="2" t="n">
         <f aca="false">$E9*$E9</f>
         <v>1.29390625</v>
       </c>
@@ -353,19 +897,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>357</v>
+        <v>0.357</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2" t="n">
         <v>12.09</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2" t="n">
         <f aca="false">$D10/$C10</f>
         <v>1.209</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="2" t="n">
         <f aca="false">$E10*$E10</f>
         <v>1.461681</v>
       </c>
@@ -375,19 +919,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>394</v>
+        <v>0.394</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="2" t="n">
         <v>12.54</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="2" t="n">
         <f aca="false">$D11/$C11</f>
         <v>1.254</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="2" t="n">
         <f aca="false">$E11*$E11</f>
         <v>1.572516</v>
       </c>
@@ -397,19 +941,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>106</v>
+        <v>0.106</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="2" t="n">
         <v>6.63</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="2" t="n">
         <f aca="false">$D12/$C12</f>
         <v>0.663</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="2" t="n">
         <f aca="false">$E12*$E12</f>
         <v>0.439569</v>
       </c>
@@ -419,19 +963,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>146</v>
+        <v>0.146</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="2" t="n">
         <v>7.82</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="2" t="n">
         <f aca="false">$D13/$C13</f>
         <v>0.782</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="2" t="n">
         <f aca="false">$E13*$E13</f>
         <v>0.611524</v>
       </c>
@@ -441,19 +985,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>195</v>
+        <v>0.195</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="2" t="n">
         <v>8.94</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="2" t="n">
         <f aca="false">$D14/$C14</f>
         <v>0.894</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="2" t="n">
         <f aca="false">$E14*$E14</f>
         <v>0.799236</v>
       </c>
@@ -463,19 +1007,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>240</v>
+        <v>0.24</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="2" t="n">
         <v>9.85</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="2" t="n">
         <f aca="false">$D15/$C15</f>
         <v>0.985</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="2" t="n">
         <f aca="false">$E15*$E15</f>
         <v>0.970225</v>
       </c>
@@ -485,21 +1029,29 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>279</v>
+        <v>0.279</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="2" t="n">
         <v>10.69</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="2" t="n">
         <f aca="false">$D16/$C16</f>
         <v>1.069</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="2" t="n">
         <f aca="false">$E16*$E16</f>
         <v>1.142761</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4" t="n">
+        <f aca="false">AVERAGE(F2:F16)</f>
+        <v>1.0399329462963</v>
       </c>
     </row>
   </sheetData>
@@ -510,5 +1062,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Strona &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>